--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H2">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I2">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J2">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>3.680342131774293</v>
+        <v>4.078761794038</v>
       </c>
       <c r="R2">
-        <v>3.680342131774293</v>
+        <v>16.315047176152</v>
       </c>
       <c r="S2">
-        <v>0.001705009213981233</v>
+        <v>0.001619455658822011</v>
       </c>
       <c r="T2">
-        <v>0.001705009213981233</v>
+        <v>0.0009420876348871633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H3">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I3">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J3">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>308.4055000301431</v>
+        <v>358.623416803905</v>
       </c>
       <c r="R3">
-        <v>308.4055000301431</v>
+        <v>2151.74050082343</v>
       </c>
       <c r="S3">
-        <v>0.1428764501686094</v>
+        <v>0.142389958290307</v>
       </c>
       <c r="T3">
-        <v>0.1428764501686094</v>
+        <v>0.1242489891340771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H4">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I4">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J4">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>2.618643478494467</v>
+        <v>2.899947331079334</v>
       </c>
       <c r="R4">
-        <v>2.618643478494467</v>
+        <v>17.399683986476</v>
       </c>
       <c r="S4">
-        <v>0.001213151141688136</v>
+        <v>0.001151412206142299</v>
       </c>
       <c r="T4">
-        <v>0.001213151141688136</v>
+        <v>0.001004718341149743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H5">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I5">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J5">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>1.867531622412518</v>
+        <v>2.033838368465334</v>
       </c>
       <c r="R5">
-        <v>1.867531622412518</v>
+        <v>12.203030210792</v>
       </c>
       <c r="S5">
-        <v>0.0008651800592461716</v>
+        <v>0.0008075271911576178</v>
       </c>
       <c r="T5">
-        <v>0.0008651800592461716</v>
+        <v>0.0007046454567747757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H6">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I6">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J6">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>6.00051371811367</v>
+        <v>7.365600523145666</v>
       </c>
       <c r="R6">
-        <v>6.00051371811367</v>
+        <v>44.193603138874</v>
       </c>
       <c r="S6">
-        <v>0.002779885894215019</v>
+        <v>0.002924481509380218</v>
       </c>
       <c r="T6">
-        <v>0.002779885894215019</v>
+        <v>0.002551892532624807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H7">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I7">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J7">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>133.9003522438384</v>
+        <v>156.7376958398255</v>
       </c>
       <c r="R7">
-        <v>133.9003522438384</v>
+        <v>626.950783359302</v>
       </c>
       <c r="S7">
-        <v>0.06203263885714153</v>
+        <v>0.06223205994759394</v>
       </c>
       <c r="T7">
-        <v>0.06203263885714153</v>
+        <v>0.03620232134841585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H8">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J8">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>1.795442807859309</v>
+        <v>2.120992997360667</v>
       </c>
       <c r="R8">
-        <v>1.795442807859309</v>
+        <v>12.725957984164</v>
       </c>
       <c r="S8">
-        <v>0.0008317831388954675</v>
+        <v>0.0008421315794706078</v>
       </c>
       <c r="T8">
-        <v>0.0008317831388954675</v>
+        <v>0.0007348411273060226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H9">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J9">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>150.4546091388584</v>
+        <v>186.487418030265</v>
       </c>
       <c r="R9">
-        <v>150.4546091388584</v>
+        <v>1678.386762272385</v>
       </c>
       <c r="S9">
-        <v>0.06970180643070463</v>
+        <v>0.07404406525276111</v>
       </c>
       <c r="T9">
-        <v>0.06970180643070463</v>
+        <v>0.09691589599608177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H10">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J10">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>1.277496610768608</v>
+        <v>1.507998822320222</v>
       </c>
       <c r="R10">
-        <v>1.277496610768608</v>
+        <v>13.571989400882</v>
       </c>
       <c r="S10">
-        <v>0.0005918317955782525</v>
+        <v>0.000598744753830226</v>
       </c>
       <c r="T10">
-        <v>0.0005918317955782525</v>
+        <v>0.000783693927289411</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H11">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J11">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>0.911069161467844</v>
+        <v>1.057614333738222</v>
       </c>
       <c r="R11">
-        <v>0.911069161467844</v>
+        <v>9.518529003644002</v>
       </c>
       <c r="S11">
-        <v>0.0004220752471531619</v>
+        <v>0.0004199214379538436</v>
       </c>
       <c r="T11">
-        <v>0.0004220752471531619</v>
+        <v>0.0005496330093213272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H12">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J12">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>2.927330887428764</v>
+        <v>3.830178843438111</v>
       </c>
       <c r="R12">
-        <v>2.927330887428764</v>
+        <v>34.471609590943</v>
       </c>
       <c r="S12">
-        <v>0.001356158193105726</v>
+        <v>0.001520756816780266</v>
       </c>
       <c r="T12">
-        <v>0.001356158193105726</v>
+        <v>0.001990510772028588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H13">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J13">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>65.32284657190985</v>
+        <v>81.50501845551484</v>
       </c>
       <c r="R13">
-        <v>65.32284657190985</v>
+        <v>489.030110733089</v>
       </c>
       <c r="S13">
-        <v>0.03026241890041192</v>
+        <v>0.03236123363544143</v>
       </c>
       <c r="T13">
-        <v>0.03026241890041192</v>
+        <v>0.02823830145478038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H14">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I14">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J14">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>0.787010046526849</v>
+        <v>0.8949108109286666</v>
       </c>
       <c r="R14">
-        <v>0.787010046526849</v>
+        <v>5.369464865572</v>
       </c>
       <c r="S14">
-        <v>0.0003646018040657448</v>
+        <v>0.0003553206708511015</v>
       </c>
       <c r="T14">
-        <v>0.0003646018040657448</v>
+        <v>0.0003100515984538835</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H15">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I15">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J15">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>65.94990852408729</v>
+        <v>78.684657000345</v>
       </c>
       <c r="R15">
-        <v>65.94990852408729</v>
+        <v>708.1619130031049</v>
       </c>
       <c r="S15">
-        <v>0.03055292080700618</v>
+        <v>0.03124142067524979</v>
       </c>
       <c r="T15">
-        <v>0.03055292080700618</v>
+        <v>0.04089173476086851</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H16">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I16">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J16">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>0.5599747664909623</v>
+        <v>0.6362701105762223</v>
       </c>
       <c r="R16">
-        <v>0.5599747664909623</v>
+        <v>5.726430995186001</v>
       </c>
       <c r="S16">
-        <v>0.0002594221141075787</v>
+        <v>0.0002526284404787112</v>
       </c>
       <c r="T16">
-        <v>0.0002594221141075787</v>
+        <v>0.0003306640657763467</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H17">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I17">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J17">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>0.3993558469349869</v>
+        <v>0.4462393332902223</v>
       </c>
       <c r="R17">
-        <v>0.3993558469349869</v>
+        <v>4.016153999612</v>
       </c>
       <c r="S17">
-        <v>0.0001850114403231221</v>
+        <v>0.0001771774989513102</v>
       </c>
       <c r="T17">
-        <v>0.0001850114403231221</v>
+        <v>0.0002319067166638416</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H18">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I18">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J18">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>1.283159122546288</v>
+        <v>1.616067784782111</v>
       </c>
       <c r="R18">
-        <v>1.283159122546288</v>
+        <v>14.544610063039</v>
       </c>
       <c r="S18">
-        <v>0.0005944550937417214</v>
+        <v>0.00064165309259562</v>
       </c>
       <c r="T18">
-        <v>0.0005944550937417214</v>
+        <v>0.0008398564311032667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H19">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I19">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J19">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>28.63345816128801</v>
+        <v>34.38942148868284</v>
       </c>
       <c r="R19">
-        <v>28.63345816128801</v>
+        <v>206.336528932097</v>
       </c>
       <c r="S19">
-        <v>0.01326515531576569</v>
+        <v>0.01365417890176105</v>
       </c>
       <c r="T19">
-        <v>0.01326515531576569</v>
+        <v>0.01191458966889199</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H20">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I20">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J20">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>1.126806504358679</v>
+        <v>1.172547801689333</v>
       </c>
       <c r="R20">
-        <v>1.126806504358679</v>
+        <v>7.035286810135999</v>
       </c>
       <c r="S20">
-        <v>0.0005220208892316525</v>
+        <v>0.0004655553004984849</v>
       </c>
       <c r="T20">
-        <v>0.0005220208892316525</v>
+        <v>0.0004062419581232924</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H21">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I21">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J21">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>94.42418964630873</v>
+        <v>103.09577274711</v>
       </c>
       <c r="R21">
-        <v>94.42418964630873</v>
+        <v>927.8619547239899</v>
       </c>
       <c r="S21">
-        <v>0.04374433343566687</v>
+        <v>0.04093375416529164</v>
       </c>
       <c r="T21">
-        <v>0.04374433343566687</v>
+        <v>0.05357798019152722</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H22">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I22">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J22">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>0.8017473372078774</v>
+        <v>0.8336664506964446</v>
       </c>
       <c r="R22">
-        <v>0.8017473372078774</v>
+        <v>7.502998056268001</v>
       </c>
       <c r="S22">
-        <v>0.0003714292172519638</v>
+        <v>0.0003310038485512598</v>
       </c>
       <c r="T22">
-        <v>0.0003714292172519638</v>
+        <v>0.000433249234101182</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H23">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I23">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J23">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>0.5717802051776738</v>
+        <v>0.5846805546284446</v>
       </c>
       <c r="R23">
-        <v>0.5717802051776738</v>
+        <v>5.262124991656001</v>
       </c>
       <c r="S23">
-        <v>0.0002648912745864795</v>
+        <v>0.0002321450186623488</v>
       </c>
       <c r="T23">
-        <v>0.0002648912745864795</v>
+        <v>0.0003038534203637568</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H24">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I24">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J24">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>1.837171014262276</v>
+        <v>2.117436402920222</v>
       </c>
       <c r="R24">
-        <v>1.837171014262276</v>
+        <v>19.056927626282</v>
       </c>
       <c r="S24">
-        <v>0.0008511147591233047</v>
+        <v>0.0008407194482201064</v>
       </c>
       <c r="T24">
-        <v>0.0008511147591233047</v>
+        <v>0.001100413359631746</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H25">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I25">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J25">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N25">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O25">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P25">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q25">
-        <v>40.99613091447458</v>
+        <v>45.05839026134768</v>
       </c>
       <c r="R25">
-        <v>40.99613091447458</v>
+        <v>270.350341568086</v>
       </c>
       <c r="S25">
-        <v>0.01899246821193273</v>
+        <v>0.01789024924005412</v>
       </c>
       <c r="T25">
-        <v>0.01899246821193273</v>
+        <v>0.01561097011420876</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H26">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I26">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J26">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N26">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O26">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P26">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q26">
-        <v>5.607636679741105</v>
+        <v>6.417325580219334</v>
       </c>
       <c r="R26">
-        <v>5.607636679741105</v>
+        <v>38.503953481316</v>
       </c>
       <c r="S26">
-        <v>0.002597875921662837</v>
+        <v>0.002547972828562938</v>
       </c>
       <c r="T26">
-        <v>0.002597875921662837</v>
+        <v>0.002223352349360096</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H27">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I27">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J27">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P27">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q27">
-        <v>469.9090280960293</v>
+        <v>564.240655015785</v>
       </c>
       <c r="R27">
-        <v>469.9090280960293</v>
+        <v>5078.165895142065</v>
       </c>
       <c r="S27">
-        <v>0.2176969406511231</v>
+        <v>0.2240294402674888</v>
       </c>
       <c r="T27">
-        <v>0.2176969406511231</v>
+        <v>0.2932309815635725</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H28">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I28">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J28">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N28">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O28">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P28">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q28">
-        <v>3.989955470278808</v>
+        <v>4.562636194206445</v>
       </c>
       <c r="R28">
-        <v>3.989955470278808</v>
+        <v>41.06372574785801</v>
       </c>
       <c r="S28">
-        <v>0.001848445225096642</v>
+        <v>0.001811576006878943</v>
       </c>
       <c r="T28">
-        <v>0.001848445225096642</v>
+        <v>0.002371162513461937</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H29">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I29">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J29">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N29">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O29">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P29">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q29">
-        <v>2.845506871766862</v>
+        <v>3.199942445048445</v>
       </c>
       <c r="R29">
-        <v>2.845506871766862</v>
+        <v>28.799482005436</v>
       </c>
       <c r="S29">
-        <v>0.001318251200866059</v>
+        <v>0.001270524037003905</v>
       </c>
       <c r="T29">
-        <v>0.001318251200866059</v>
+        <v>0.001662982374218043</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H30">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I30">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J30">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N30">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O30">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P30">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q30">
-        <v>9.142818688642366</v>
+        <v>11.58867789728522</v>
       </c>
       <c r="R30">
-        <v>9.142818688642366</v>
+        <v>104.298101075567</v>
       </c>
       <c r="S30">
-        <v>0.004235636130486539</v>
+        <v>0.00460123707799183</v>
       </c>
       <c r="T30">
-        <v>0.004235636130486539</v>
+        <v>0.006022535534505145</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H31">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I31">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J31">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N31">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O31">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P31">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q31">
-        <v>204.0203056640309</v>
+        <v>246.6034732324402</v>
       </c>
       <c r="R31">
-        <v>204.0203056640309</v>
+        <v>1479.620839394641</v>
       </c>
       <c r="S31">
-        <v>0.09451743575501188</v>
+        <v>0.09791289866331354</v>
       </c>
       <c r="T31">
-        <v>0.09451743575501188</v>
+        <v>0.0854384594825195</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H32">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I32">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J32">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N32">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O32">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P32">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q32">
-        <v>4.406184712523308</v>
+        <v>4.634650246555999</v>
       </c>
       <c r="R32">
-        <v>4.406184712523308</v>
+        <v>18.538600986224</v>
       </c>
       <c r="S32">
-        <v>0.00204127368173069</v>
+        <v>0.001840168891308394</v>
       </c>
       <c r="T32">
-        <v>0.00204127368173069</v>
+        <v>0.001070483374559743</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H33">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I33">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J33">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P33">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q33">
-        <v>369.2296940979781</v>
+        <v>407.49967540161</v>
       </c>
       <c r="R33">
-        <v>369.2296940979781</v>
+        <v>2444.99805240966</v>
       </c>
       <c r="S33">
-        <v>0.1710547574034981</v>
+        <v>0.1617960765107436</v>
       </c>
       <c r="T33">
-        <v>0.1710547574034981</v>
+        <v>0.1411827013203653</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H34">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I34">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J34">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N34">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O34">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P34">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q34">
-        <v>3.135096262620725</v>
+        <v>3.295176892318667</v>
       </c>
       <c r="R34">
-        <v>3.135096262620725</v>
+        <v>19.771061353912</v>
       </c>
       <c r="S34">
-        <v>0.001452410624636536</v>
+        <v>0.001308336484098016</v>
       </c>
       <c r="T34">
-        <v>0.001452410624636536</v>
+        <v>0.001141649927763741</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H35">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I35">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J35">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N35">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O35">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P35">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q35">
-        <v>2.235849002674335</v>
+        <v>2.311027211650667</v>
       </c>
       <c r="R35">
-        <v>2.235849002674335</v>
+        <v>13.866163269904</v>
       </c>
       <c r="S35">
-        <v>0.001035812164776283</v>
+        <v>0.000917583885646365</v>
       </c>
       <c r="T35">
-        <v>0.001035812164776283</v>
+        <v>0.0008006805508351669</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H36">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I36">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J36">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N36">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O36">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P36">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q36">
-        <v>7.18394400992617</v>
+        <v>8.369447397131333</v>
       </c>
       <c r="R36">
-        <v>7.18394400992617</v>
+        <v>50.216684382788</v>
       </c>
       <c r="S36">
-        <v>0.003328139148776451</v>
+        <v>0.003323054797735318</v>
       </c>
       <c r="T36">
-        <v>0.003328139148776451</v>
+        <v>0.002899686216734183</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H37">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I37">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J37">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N37">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O37">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P37">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q37">
-        <v>160.3083800184231</v>
+        <v>178.099246131631</v>
       </c>
       <c r="R37">
-        <v>160.3083800184231</v>
+        <v>712.396984526524</v>
       </c>
       <c r="S37">
-        <v>0.07426680868880124</v>
+        <v>0.07071357596842216</v>
       </c>
       <c r="T37">
-        <v>0.07426680868880124</v>
+        <v>0.04113628253765385</v>
       </c>
     </row>
   </sheetData>
